--- a/Models/Prospective_conso/data/Hypotheses_hydrogen_1D_2050.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_hydrogen_1D_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D42C183-7583-F844-9974-828923A020F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E87993-E6B3-CA4A-A4F7-73FC2F76CA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="1680" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="1680" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="2" r:id="rId1"/>
@@ -555,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -855,10 +855,25 @@
       <c r="C2" s="3">
         <v>900</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2">
         <f>13100*(3.03)</f>
         <v>39693</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2">
         <v>8220</v>
       </c>
@@ -880,6 +895,18 @@
         <f>13100*(2.7-0.68)</f>
         <v>26462</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3">
         <v>5150</v>
       </c>
@@ -897,6 +924,24 @@
       <c r="D4">
         <v>55000</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -911,6 +956,18 @@
       <c r="D5">
         <v>5600</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
       <c r="I5">
         <f>8060*8.9</f>
         <v>71734</v>
@@ -932,10 +989,22 @@
       <c r="D6">
         <v>5600</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
       <c r="G6">
         <f>7890*10.4</f>
         <v>82056</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="J6">
         <v>10140</v>
       </c>
@@ -956,6 +1025,21 @@
       <c r="E7">
         <f>13100*4.73</f>
         <v>61963.000000000007</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Models/Prospective_conso/data/Hypotheses_hydrogen_1D_2050.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_hydrogen_1D_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E87993-E6B3-CA4A-A4F7-73FC2F76CA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8659103-29A7-144D-84BA-0C83682C2B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="1680" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="1680" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="2" r:id="rId1"/>
@@ -138,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +151,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -251,6 +259,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -615,8 +624,7 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <f>1/1000</f>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -624,8 +632,7 @@
         <v>31</v>
       </c>
       <c r="B7">
-        <f>1/1000</f>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -638,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053E742F-A8F1-8A43-B669-314090A890C8}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -656,32 +663,32 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>2020</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>2020</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>2020</v>
       </c>
       <c r="C4">
@@ -689,10 +696,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>2020</v>
       </c>
       <c r="C5">
@@ -700,21 +707,21 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="11">
         <v>2020</v>
       </c>
       <c r="C7">
@@ -722,32 +729,32 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>2030</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>2030</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="11">
         <v>2030</v>
       </c>
       <c r="C10">
@@ -755,10 +762,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>2030</v>
       </c>
       <c r="C11">
@@ -766,21 +773,21 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="11">
         <v>2030</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="11">
         <v>2030</v>
       </c>
       <c r="C13">
@@ -797,7 +804,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
